--- a/DOCUMENTATION/RouteSheet.xlsx
+++ b/DOCUMENTATION/RouteSheet.xlsx
@@ -3,17 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB01154-3666-4F9A-9711-CB449AAAAE42}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27275F38-FA38-461F-8249-5AFB0F42DAF3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -509,7 +515,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,6 +577,9 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="B10" s="3">
+        <v>43627</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
